--- a/dashboard/Dashboard.xlsx
+++ b/dashboard/Dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\planilhas\dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Aulas\Bootcamp-DataScience\dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA0B9602-E385-4F50-9596-679E24A4DCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802A46FB-6DBA-4B19-BDD7-6F57AFBE579D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-1350" windowWidth="20730" windowHeight="11760" tabRatio="0" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="0" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
     <sheet name="A̳ssets" sheetId="1" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -36,17 +36,6 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1121,7 +1110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1255,10 +1244,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1276,23 +1265,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1302,38 +1290,6 @@
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF22C55E"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1376,11 +1332,43 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF22C55E"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleLight6 2" pivot="0" table="0" count="10" xr9:uid="{7812454B-9EBD-4F72-9068-FA94BE9FF08F}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1671,7 +1659,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[dashboard_xbox_finalizada.xlsx]C̳álculos!tbl_annual_total</c:name>
+    <c:name>[Dashboard.xlsx]C̳álculos!tbl_annual_total</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -1945,13 +1933,13 @@
             <c:numRef>
               <c:f>C̳álculos!$C$12:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-"R$"\ * #\ ##0.00_-;\-"R$"\ * #\ ##0.00_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2824</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>747</c:v>
+                  <c:v>1502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2032,7 +2020,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-&quot;R$&quot;\ * #\ ##0.00_-;\-&quot;R$&quot;\ * #\ ##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2050,6 +2038,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2057,7 +2046,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -3448,8 +3436,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>134711</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Subscription Type">
@@ -3472,7 +3460,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3653,7 +3641,7 @@
                 <a:latin typeface="Aptos Narrow"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> R$ 1.350,00 </a:t>
+              <a:t> R$ 990,00 </a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="3600" kern="1200">
               <a:solidFill>
@@ -3916,7 +3904,8 @@
                   </a:solidFill>
                   <a:latin typeface="Aptos Narrow"/>
                 </a:rPr>
-                <a:t> R$ 1.800,00 </a:t>
+                <a:pPr algn="ctr"/>
+                <a:t> R$ 1 140,00 </a:t>
               </a:fld>
               <a:endParaRPr lang="pt-BR" sz="3600" kern="1200">
                 <a:solidFill>
@@ -4293,75 +4282,6 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>393807</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1114986</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Elipse 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC4DB9D8-18DD-49D2-B4D2-0B5AC081D94F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="393807" y="190500"/>
-          <a:ext cx="721179" cy="721179"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </a:blipFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>109656</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>16009</xdr:rowOff>
@@ -4419,7 +4339,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" b="1" kern="1200"/>
-            <a:t>&gt; bem vinda, Liana</a:t>
+            <a:t>&gt; bem vindo, Leonardo</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4492,8 +4412,77 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Calculation period: 01/01/2024 - 31/12/2024 | Update date: 25/12/2024 09:00:00</a:t>
+            <a:t>Calculation period: 01/01/2025 - 31/12/2025 | Update date: 22/11/2025 10:00:00</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508107</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1203432</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Elipse 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF708C0-1CF3-49BD-BEB2-DC3130075B65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508107" y="219075"/>
+          <a:ext cx="695325" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4811,7 +4800,7 @@
         <s v="No"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Subscription Price" numFmtId="44">
+    <cacheField name="Subscription Price" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="15"/>
     </cacheField>
     <cacheField name="Subscription Type" numFmtId="0">
@@ -4824,7 +4813,7 @@
     <cacheField name="EA Play Season Pass" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="EA Play Season Pass_x000a_Price" numFmtId="44">
+    <cacheField name="EA Play Season Pass_x000a_Price" numFmtId="164">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="30" maxValue="30" count="2">
         <n v="30"/>
         <s v="-"/>
@@ -4833,13 +4822,13 @@
     <cacheField name="Minecraft Season Pass" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Minecraft Season Pass Price" numFmtId="44">
+    <cacheField name="Minecraft Season Pass Price" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
     </cacheField>
-    <cacheField name="Coupon Value" numFmtId="44">
+    <cacheField name="Coupon Value" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
     </cacheField>
-    <cacheField name="Total Value" numFmtId="44">
+    <cacheField name="Total Value" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="62"/>
     </cacheField>
   </cacheFields>
@@ -9282,7 +9271,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22E17BE4-EBDD-4E6C-AABB-48C907DB6551}" name="Tabela dinâmica9" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22E17BE4-EBDD-4E6C-AABB-48C907DB6551}" name="Tabela dinâmica9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B32:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -9587,7 +9576,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="4">
         <item x="1"/>
@@ -9605,9 +9594,9 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="2"/>
@@ -9630,10 +9619,10 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="1" hier="-1"/>
+    <pageField fld="6" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Soma de Minecraft Season Pass Price" fld="10" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Soma de Minecraft Season Pass Price" fld="10" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -9648,7 +9637,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84005490-F2B6-45E1-A8C2-E59BAE3E3FBC}" name="tbl_easeasonpass_total" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84005490-F2B6-45E1-A8C2-E59BAE3E3FBC}" name="tbl_easeasonpass_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B21:C25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -9953,7 +9942,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="4">
         <item x="1"/>
@@ -9971,9 +9960,9 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="2"/>
@@ -9996,7 +9985,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="1" hier="-1"/>
+    <pageField fld="6" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Soma de EA Play Season Pass" fld="8" baseField="2" baseItem="0"/>
@@ -10014,7 +10003,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E786295-8353-4BE2-9C12-200F15B8EF15}" name="tbl_annual_total" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E786295-8353-4BE2-9C12-200F15B8EF15}" name="tbl_annual_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B11:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -10312,7 +10301,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="4">
         <item x="1"/>
@@ -10324,9 +10313,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="4"/>
@@ -10346,10 +10335,10 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="1" hier="-1"/>
+    <pageField fld="6" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="4" format="2" series="1">
@@ -10385,8 +10374,8 @@
     <tabular pivotCacheId="1765956580">
       <items count="3">
         <i x="1"/>
-        <i x="0" s="1"/>
-        <i x="2"/>
+        <i x="0"/>
+        <i x="2" s="1"/>
       </items>
     </tabular>
   </data>
@@ -10400,22 +10389,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="9" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="2" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="5" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="4" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="7" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23107,13 +23096,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -23130,7 +23119,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -23146,7 +23135,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="13">
-        <v>2824</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -23154,7 +23143,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="13">
-        <v>747</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -23162,7 +23151,7 @@
         <v>310</v>
       </c>
       <c r="C14" s="13">
-        <v>3571</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -23175,7 +23164,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -23190,7 +23179,7 @@
       <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22">
         <v>0</v>
       </c>
     </row>
@@ -23198,7 +23187,7 @@
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23">
         <v>0</v>
       </c>
     </row>
@@ -23206,21 +23195,21 @@
       <c r="B24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="15">
-        <v>1350</v>
+      <c r="C24">
+        <v>990</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C25" s="15">
-        <v>1350</v>
-      </c>
-      <c r="E25" s="18">
+      <c r="C25">
+        <v>990</v>
+      </c>
+      <c r="E25" s="16">
         <f>GETPIVOTDATA("EA Play Season Pass
 Price",$B$21)</f>
-        <v>1350</v>
+        <v>990</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -23233,7 +23222,7 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -23257,7 +23246,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="13">
-        <v>900</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -23265,7 +23254,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="13">
-        <v>900</v>
+        <v>660</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -23273,11 +23262,11 @@
         <v>310</v>
       </c>
       <c r="C36" s="13">
-        <v>1800</v>
-      </c>
-      <c r="E36" s="18">
+        <v>1140</v>
+      </c>
+      <c r="E36" s="16">
         <f>GETPIVOTDATA("Minecraft Season Pass Price",$B$32)</f>
-        <v>1800</v>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -23294,7 +23283,7 @@
   <dimension ref="A2:S136"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23305,25 +23294,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:19" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23739,6 +23728,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -23993,7 +23993,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -24002,25 +24002,40 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6A6278B-0476-46CE-815A-3F41F4371156}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499037E4-A6E4-45D3-B93A-3D2B6A0C2B33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B26109AA-4A63-4ABA-9238-1315B3F7EEAB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6A6278B-0476-46CE-815A-3F41F4371156}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499037E4-A6E4-45D3-B93A-3D2B6A0C2B33}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B26109AA-4A63-4ABA-9238-1315B3F7EEAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>